--- a/biology/Botanique/Nierembergia/Nierembergia.xlsx
+++ b/biology/Botanique/Nierembergia/Nierembergia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nierembergia est un genre de plantes de la famille des Solanacées originaire d'Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre sont des plantes herbacées ou légèrement buissonnantes, de petite taille, vivaces (en l'absence de gel) et à feuillage en général persistant.
 La fleur est solitaire. Elle présente un calice à cinq lobes, une corolle en entonnoir très évasé, et compte cinq étamines. Son ovaire est à deux loges, surmonté d'un long style terminé par deux stigmates.
@@ -546,7 +560,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont originaires des continents américains, du Mexique à l'Amérique du Sud. 
 </t>
@@ -579,15 +595,55 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Position taxinomique et historique
-Le genre Nierembergia fait partie de la sous-famille des Petunioideae.
+          <t>Position taxinomique et historique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Nierembergia fait partie de la sous-famille des Petunioideae.
 Hipólito Ruiz López &amp; José Antonio Pavón ont dédié ce genre à Juan Eusebio Nieremberg, jésuite espagnol du XVIIe siècle.
-Une revue complète du genre est assurée par Michel Félix Dunal en 1852 : les principales espèces y sont énumérées[1]. Le genre est classé alors ainsi : Tribus Solaneae, Subtribus Fabianeae.
-Parallèlement, Otto Sendtner recense les principales espèces connues en Amérique du Sud dans le volume 10 de Flora brasiliensis[2]
+Une revue complète du genre est assurée par Michel Félix Dunal en 1852 : les principales espèces y sont énumérées. Le genre est classé alors ainsi : Tribus Solaneae, Subtribus Fabianeae.
+Parallèlement, Otto Sendtner recense les principales espèces connues en Amérique du Sud dans le volume 10 de Flora brasiliensis
 Une révision importante est publiée en 1941 par Aníbal Roberto Millán dans la revue Darwiniana, volume 5.
 Quelques révisions sont apportées en 1993 et 1995 par Andrea A. Cocucci et Armando Theodoro Hunziker dans les revues Darwiniana et Lorentzia.
-Liste des espèces
-La liste des espèces a été constituée à partir des index IPNI (International Plant Names Index) et Tropicos (Index du jardin botanique du Missouri), à la date d'août 2011.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nierembergia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nierembergia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénominations et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La liste des espèces a été constituée à partir des index IPNI (International Plant Names Index) et Tropicos (Index du jardin botanique du Missouri), à la date d'août 2011.
 Les espèces maintenues dans le genre sont en caractères gras :
 Nierembergia andina Millán (1941) : voir Nierembergia pulchella var. macrocalyx (Millán) A.A.Cocucci &amp; Hunz.
 Nierembergia angustifolia Kunth (1818)
